--- a/biology/Zoologie/Daphniidae/Daphniidae.xlsx
+++ b/biology/Zoologie/Daphniidae/Daphniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  Daphniidae constituent une famille de crustacés branchiopodes de l'ordre des Diplostraca, généralement appelées « daphnies ».
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crustacés de petite taille (1 à 2 mm), avec une carapace bivalve laissant la tête libre et des antennes biramées natatoires. La segmentation est indistincte. Les yeux sont fusionnés en un seul œil médian. La reproduction se fait par reproduction sexuée en période défavorable (hiver) et par parthénogenèse cyclique en période favorable (été).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 décembre 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 décembre 2018) :
 genre Ceriodaphnia Dana, 1853
 genre Daphnia O.F. Müller, 1785
 genre Megafenestra Dumont &amp; Pensaert, 1983
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Straus, 1820 : Mémoire sur les Daphnia, de la classe des crustacés, pp. 1-59 (texte intégal) (fr).</t>
         </is>
